--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>1.138404323989778</v>
+        <v>8.57877469284489</v>
       </c>
       <c r="R2">
-        <v>10.245638915908</v>
+        <v>77.20897223560401</v>
       </c>
       <c r="S2">
-        <v>0.01636805379617484</v>
+        <v>0.05324126718868796</v>
       </c>
       <c r="T2">
-        <v>0.01636805379617484</v>
+        <v>0.05324126718868796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
-        <v>0.3882838750471111</v>
+        <v>0.977123493152889</v>
       </c>
       <c r="R3">
-        <v>3.494554875424</v>
+        <v>8.794111438376001</v>
       </c>
       <c r="S3">
-        <v>0.005582771622549998</v>
+        <v>0.006064186884251313</v>
       </c>
       <c r="T3">
-        <v>0.005582771622549995</v>
+        <v>0.006064186884251313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
-        <v>0.3240108866195556</v>
+        <v>0.8153793389304446</v>
       </c>
       <c r="R4">
-        <v>2.916097979576</v>
+        <v>7.338414050374001</v>
       </c>
       <c r="S4">
-        <v>0.00465865028002372</v>
+        <v>0.005060376428855173</v>
       </c>
       <c r="T4">
-        <v>0.00465865028002372</v>
+        <v>0.005060376428855174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N5">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O5">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P5">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q5">
-        <v>9.794483160936224</v>
+        <v>29.32987075305689</v>
       </c>
       <c r="R5">
-        <v>88.15034844842602</v>
+        <v>263.968836777512</v>
       </c>
       <c r="S5">
-        <v>0.1408257364326141</v>
+        <v>0.182025935087863</v>
       </c>
       <c r="T5">
-        <v>0.1408257364326141</v>
+        <v>0.1820259350878631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q6">
         <v>3.340675887880889</v>
@@ -818,10 +818,10 @@
         <v>30.066082990928</v>
       </c>
       <c r="S6">
-        <v>0.04803246218951426</v>
+        <v>0.02073277640521543</v>
       </c>
       <c r="T6">
-        <v>0.04803246218951424</v>
+        <v>0.02073277640521543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q7">
         <v>2.787690722952445</v>
@@ -880,10 +880,10 @@
         <v>25.089216506572</v>
       </c>
       <c r="S7">
-        <v>0.0400816043639631</v>
+        <v>0.01730086077956184</v>
       </c>
       <c r="T7">
-        <v>0.0400816043639631</v>
+        <v>0.01730086077956184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N8">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O8">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P8">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q8">
-        <v>31.84902738171368</v>
+        <v>95.37285851303066</v>
       </c>
       <c r="R8">
-        <v>286.6412464354231</v>
+        <v>858.3557266172759</v>
       </c>
       <c r="S8">
-        <v>0.4579274538528685</v>
+        <v>0.5918994290497341</v>
       </c>
       <c r="T8">
-        <v>0.4579274538528683</v>
+        <v>0.5918994290497341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.694632</v>
       </c>
       <c r="O9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q9">
         <v>10.86298032048267</v>
       </c>
       <c r="R9">
-        <v>97.76682288434401</v>
+        <v>97.76682288434398</v>
       </c>
       <c r="S9">
-        <v>0.156188660325262</v>
+        <v>0.06741741780334386</v>
       </c>
       <c r="T9">
-        <v>0.1561886603252619</v>
+        <v>0.06741741780334386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.414118</v>
       </c>
       <c r="O10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q10">
-        <v>9.064821155767333</v>
+        <v>9.064821155767332</v>
       </c>
       <c r="R10">
-        <v>81.58339040190602</v>
+        <v>81.58339040190599</v>
       </c>
       <c r="S10">
-        <v>0.1303346071370297</v>
+        <v>0.05625775037248736</v>
       </c>
       <c r="T10">
-        <v>0.1303346071370296</v>
+        <v>0.05625775037248737</v>
       </c>
     </row>
   </sheetData>
